--- a/cdcs.xlsx
+++ b/cdcs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEGION\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitproj\TimeTableAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D932A28-49AF-4E4E-B6AC-1828DF27058E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A5AA85-578F-4494-9673-2E1DF114A530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="208">
   <si>
     <t>BIO F110</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>PHY F344</t>
-  </si>
-  <si>
-    <t>CS F11</t>
   </si>
   <si>
     <t>MF 213</t>
@@ -665,7 +662,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -678,6 +675,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -925,7 +926,9 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -993,7 +996,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,22 +1032,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,22 +1073,22 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1096,22 +1099,22 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,21 +1125,22 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1148,7 +1152,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1160,18 +1164,18 @@
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,17 +1190,17 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1360,6 +1364,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2100,7 +2105,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,22 +2141,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,22 +2177,22 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2205,17 +2210,17 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2226,17 +2231,17 @@
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2324,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,22 +2360,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2391,22 +2396,22 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2424,17 +2429,17 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,17 +2457,17 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2550,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,29 +2586,29 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,22 +2629,22 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2657,17 +2662,17 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2678,22 +2683,22 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2776,7 +2781,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,22 +2817,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2853,22 +2858,22 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,22 +2884,22 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2905,22 +2910,22 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3003,7 +3008,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3039,22 +3044,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,17 +3080,17 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3101,22 +3106,22 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3127,17 +3132,17 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3225,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,22 +3261,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3292,22 +3297,22 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,17 +3328,17 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3344,17 +3349,17 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3437,7 +3442,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3473,27 +3478,27 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,22 +3519,22 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3545,17 +3550,17 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,22 +3571,22 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
